--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Cxcr3.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H2">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q2">
-        <v>0.03356556305422222</v>
+        <v>0.03180173925688889</v>
       </c>
       <c r="R2">
-        <v>0.302090067488</v>
+        <v>0.2862156533119999</v>
       </c>
       <c r="S2">
-        <v>0.0001564089091835192</v>
+        <v>0.0001879848396509225</v>
       </c>
       <c r="T2">
-        <v>0.0001564089091835192</v>
+        <v>0.0001879848396509225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H3">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N3">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O3">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P3">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q3">
-        <v>0.8523394259135555</v>
+        <v>1.115026033063556</v>
       </c>
       <c r="R3">
-        <v>7.671054833222001</v>
+        <v>10.035234297572</v>
       </c>
       <c r="S3">
-        <v>0.003971733757181133</v>
+        <v>0.006591085737131544</v>
       </c>
       <c r="T3">
-        <v>0.003971733757181134</v>
+        <v>0.006591085737131545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.958761</v>
       </c>
       <c r="I4">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J4">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.155824</v>
       </c>
       <c r="O4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q4">
         <v>0.016599774896</v>
@@ -697,10 +697,10 @@
         <v>0.149397974064</v>
       </c>
       <c r="S4">
-        <v>7.735167975526424E-05</v>
+        <v>9.812375344817044E-05</v>
       </c>
       <c r="T4">
-        <v>7.735167975526424E-05</v>
+        <v>9.812375344817044E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.958761</v>
       </c>
       <c r="I5">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J5">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N5">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O5">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P5">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q5">
-        <v>0.421522576049</v>
+        <v>0.5820178891010001</v>
       </c>
       <c r="R5">
-        <v>3.793703184441</v>
+        <v>5.238161001909</v>
       </c>
       <c r="S5">
-        <v>0.001964212136395483</v>
+        <v>0.003440394837301843</v>
       </c>
       <c r="T5">
-        <v>0.001964212136395483</v>
+        <v>0.003440394837301843</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H6">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I6">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J6">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.155824</v>
       </c>
       <c r="O6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P6">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q6">
-        <v>0.1400958353048889</v>
+        <v>0.006022961189333333</v>
       </c>
       <c r="R6">
-        <v>1.260862517744</v>
+        <v>0.05420665070399999</v>
       </c>
       <c r="S6">
-        <v>0.0006528189843201599</v>
+        <v>3.560262488333224E-05</v>
       </c>
       <c r="T6">
-        <v>0.0006528189843201599</v>
+        <v>3.560262488333224E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H7">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I7">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J7">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N7">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O7">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P7">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q7">
-        <v>3.557491457651222</v>
+        <v>0.2111758249443333</v>
       </c>
       <c r="R7">
-        <v>32.017423118861</v>
+        <v>1.900582424499</v>
       </c>
       <c r="S7">
-        <v>0.01657720913014516</v>
+        <v>0.001248291902201935</v>
       </c>
       <c r="T7">
-        <v>0.01657720913014516</v>
+        <v>0.001248291902201935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H8">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I8">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J8">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.155824</v>
       </c>
       <c r="O8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P8">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q8">
-        <v>7.940650417496889</v>
+        <v>4.636740618263111</v>
       </c>
       <c r="R8">
-        <v>71.465853757472</v>
+        <v>41.730665564368</v>
       </c>
       <c r="S8">
-        <v>0.03700186610908394</v>
+        <v>0.02740846764971499</v>
       </c>
       <c r="T8">
-        <v>0.03700186610908394</v>
+        <v>0.02740846764971499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H9">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I9">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J9">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N9">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O9">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P9">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q9">
-        <v>201.6390848947242</v>
+        <v>162.5724447384315</v>
       </c>
       <c r="R9">
-        <v>1814.751764052518</v>
+        <v>1463.152002645883</v>
       </c>
       <c r="S9">
-        <v>0.9395983992939353</v>
+        <v>0.9609900486556672</v>
       </c>
       <c r="T9">
-        <v>0.9395983992939354</v>
+        <v>0.9609900486556674</v>
       </c>
     </row>
   </sheetData>
